--- a/Assets/ERang/Excels/AreaData.xlsx
+++ b/Assets/ERang/Excels/AreaData.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
